--- a/Assignment 4/Report/imgs/crossover.xlsx
+++ b/Assignment 4/Report/imgs/crossover.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Mestrado\Disciplinas\Algoritmos Genéticos\Trabalho 2\Artigo\imgs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5535" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="cruzamento" sheetId="1" r:id="rId1"/>
+    <sheet name="uniforme" sheetId="2" r:id="rId2"/>
+    <sheet name="mutação" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>Parent 1</t>
   </si>
@@ -39,9 +36,6 @@
     <t>Offspring 1</t>
   </si>
   <si>
-    <t>Crossover at 2nd bit/position</t>
-  </si>
-  <si>
     <t>após a mutação</t>
   </si>
   <si>
@@ -49,6 +43,33 @@
   </si>
   <si>
     <t>Offspring 1:</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Uniforme</t>
+  </si>
+  <si>
+    <t>Crossover at between bits 3, 4 and 5</t>
+  </si>
+  <si>
+    <t>Crossover at 4th bit/position</t>
+  </si>
+  <si>
+    <t>1p</t>
+  </si>
+  <si>
+    <t>2p</t>
+  </si>
+  <si>
+    <t>f(x,y) = f(23,37)</t>
+  </si>
+  <si>
+    <t>x = 23</t>
+  </si>
+  <si>
+    <t>y = 37</t>
   </si>
 </sst>
 </file>
@@ -78,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +136,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -222,11 +267,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,20 +385,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -290,6 +403,88 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,6 +501,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Seta para baixo 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="571500"/>
+          <a:ext cx="333375" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,7 +605,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +640,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,7 +817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,29 +825,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P23"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="9" width="1.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
     <col min="10" max="15" width="2.85546875" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="13"/>
+    </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -605,6 +878,809 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="36">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="37"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="40">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="15"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="27">
+        <v>1</v>
+      </c>
+      <c r="D28" s="27">
+        <v>1</v>
+      </c>
+      <c r="E28" s="28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="29">
+        <v>0</v>
+      </c>
+      <c r="G28" s="27">
+        <v>1</v>
+      </c>
+      <c r="H28" s="27">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="27">
+        <v>1</v>
+      </c>
+      <c r="K28" s="27">
+        <v>1</v>
+      </c>
+      <c r="L28" s="28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="29">
+        <v>0</v>
+      </c>
+      <c r="N28" s="27">
+        <v>1</v>
+      </c>
+      <c r="O28" s="27">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -617,396 +1693,825 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
       <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="27">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="8"/>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
+      <c r="J8" s="27">
+        <v>1</v>
+      </c>
+      <c r="K8" s="28">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0</v>
+      </c>
+      <c r="M8" s="27">
+        <v>1</v>
+      </c>
+      <c r="N8" s="27">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="11"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="20">
-        <v>0</v>
-      </c>
-      <c r="F19" s="21">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="F7:L7"/>
+  <mergeCells count="9">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="E9:K9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="23" width="1.85546875" customWidth="1"/>
+    <col min="24" max="25" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="48">
+        <v>0</v>
+      </c>
+      <c r="E2" s="48">
+        <v>0</v>
+      </c>
+      <c r="F2" s="48">
+        <v>0</v>
+      </c>
+      <c r="G2" s="48">
+        <v>0</v>
+      </c>
+      <c r="H2" s="48">
+        <v>0</v>
+      </c>
+      <c r="I2" s="48">
+        <v>1</v>
+      </c>
+      <c r="J2" s="48">
+        <v>0</v>
+      </c>
+      <c r="K2" s="48">
+        <v>1</v>
+      </c>
+      <c r="L2" s="48">
+        <v>1</v>
+      </c>
+      <c r="M2" s="48">
+        <v>1</v>
+      </c>
+      <c r="N2" s="47">
+        <v>0</v>
+      </c>
+      <c r="O2" s="47">
+        <v>0</v>
+      </c>
+      <c r="P2" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>0</v>
+      </c>
+      <c r="R2" s="47">
+        <v>1</v>
+      </c>
+      <c r="S2" s="47">
+        <v>0</v>
+      </c>
+      <c r="T2" s="47">
+        <v>0</v>
+      </c>
+      <c r="U2" s="47">
+        <v>1</v>
+      </c>
+      <c r="V2" s="47">
+        <v>0</v>
+      </c>
+      <c r="W2" s="47">
+        <v>1</v>
+      </c>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="3" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="49">
+        <v>0</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
+        <v>0</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0</v>
+      </c>
+      <c r="H7" s="49">
+        <v>0</v>
+      </c>
+      <c r="I7" s="49">
+        <v>1</v>
+      </c>
+      <c r="J7" s="49">
+        <v>0</v>
+      </c>
+      <c r="K7" s="49">
+        <v>1</v>
+      </c>
+      <c r="L7" s="49">
+        <v>1</v>
+      </c>
+      <c r="M7" s="49">
+        <v>1</v>
+      </c>
+      <c r="N7" s="49">
+        <v>0</v>
+      </c>
+      <c r="O7" s="49">
+        <v>0</v>
+      </c>
+      <c r="P7" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="49">
+        <v>0</v>
+      </c>
+      <c r="R7" s="49">
+        <v>1</v>
+      </c>
+      <c r="S7" s="49">
+        <v>0</v>
+      </c>
+      <c r="T7" s="49">
+        <v>0</v>
+      </c>
+      <c r="U7" s="49">
+        <v>1</v>
+      </c>
+      <c r="V7" s="49">
+        <v>0</v>
+      </c>
+      <c r="W7" s="49">
+        <v>1</v>
+      </c>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="D8:W8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>